--- a/member_info.xlsx
+++ b/member_info.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2020년1월" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2020년3월" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2020년2월" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2020년4월" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -3175,4 +3176,924 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>부대</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>군번</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1사단</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21-00000000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/member_info.xlsx
+++ b/member_info.xlsx
@@ -12,6 +12,7 @@
     <sheet name="2020년4월" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="2020년5월" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="2020년6월" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2020년7월" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5983,4 +5984,924 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>부대</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>군번</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0사단 본부</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21-76022112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0사단 군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21-76022113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>윤자빈</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0사단 군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21-76022114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>강병수</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0사단 군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21-76022115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>김광준</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0사단 군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21-76022116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>김수현</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0사단 군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21-76022117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>김우진</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0사단 군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21-76022118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>김인호</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0사단 화생방지원대</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21-76022119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>김준휘</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0사단 화생방지원대</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21-76022120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>김진호</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21-76022121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>김태균</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21-76022122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>김태훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21-76022123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>김태훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21-76022124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>김형민</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21-76022125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>김회찬</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21-76022126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>노영균</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21-76022127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>노태민</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0사단 전차대대</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21-76022128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>모범진</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0사단 정보통신대대</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21-76022129</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>문준혁</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0사단 정보통신대대</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21-76022130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>백승훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0사단 수색대대</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21-76022131</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>서윤재</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0사단 수색대대</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21-76022132</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>신민혁</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0사단 수색대대</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21-76022133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>안민철</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0사단 수색대대</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21-76022134</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>양현준</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0사단 보급수송대대</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21-76022135</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>오성규</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0사단 보급수송대대</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>21-76022136</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21-76022137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>이성준</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21-76022138</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>이승윤</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>21-76022139</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>이신형</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>21-76022140</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>이재익</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>21-76022141</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>이준영</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>21-76022142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>장준표</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21-76022143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>전효병</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>21-76022144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>정건</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21-76022145</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>정재욱</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>21-76022146</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>정지원</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0사단 공병대대</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>21-76022147</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>정철</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0사단 00보병여단</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>21-76022148</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>조용민</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0사단 00보병여단</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21-76022149</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>김철민</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0사단 00보병여단</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>21-76022150</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0사단 00보병여단</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>21-76022151</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>윤승오</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0사단 00보병여단</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>21-76022152</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>박철민</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0사단 00보병여단</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>21-76022153</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>홍철민</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21-76022154</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>박승오</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>21-76022155</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>김성수</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>21-76022156</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>허종환</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>21-76022157</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>안형인</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>21-76022158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>나선의</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21-76022159</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>변상현</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0사단 01보병여단</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>21-76022160</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>조봉희</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>소속없음</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>21-76022161</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>염기정</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>소속없음</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>21-76022162</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>박대영</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>소속없음</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21-76022163</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>박도영</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/member_info.xlsx
+++ b/member_info.xlsx
@@ -14,6 +14,7 @@
     <sheet name="2020년6월" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="2020년7월" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="2020년8월" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="21년1월" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -10758,4 +10759,924 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>부대</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>군번</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>본부</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21-76022112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21-76022113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>윤자빈</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21-76022114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>강병수</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21-76022115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>김광준</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21-76022116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>김수현</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21-76022117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>김우진</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>군사경찰대대</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21-76022118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>김인호</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>화생방지원대</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21-76022119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>김준휘</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>화생방지원대</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21-76022120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>김진호</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21-76022121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>김태균</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21-76022122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>김태훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21-76022123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>김태훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21-76022124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>김형민</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21-76022125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>김회찬</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21-76022126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>노영균</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21-76022127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>노태민</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>전차대대</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21-76022128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>모범진</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>정보통신대대</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21-76022129</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>문준혁</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>정보통신대대</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21-76022130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>백승훈</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>수색대대</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21-76022131</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>서윤재</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>수색대대</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21-76022132</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>신민혁</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>수색대대</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21-76022133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>안민철</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>수색대대</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21-76022134</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>양현준</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>보급수송대대</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21-76022135</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>오성규</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>보급수송대대</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>21-76022136</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21-76022137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>이성준</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21-76022138</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>이승윤</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>21-76022139</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>이신형</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>21-76022140</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>이재익</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>21-76022141</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>이준영</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>21-76022142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>장준표</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21-76022143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>전효병</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>21-76022144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>정건</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21-76022145</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>정재욱</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>21-76022146</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>정지원</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>공병대대</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>21-76022147</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>정철</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>00보병여단</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>21-76022148</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>조용민</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>00보병여단</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21-76022149</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>김철민</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>00보병여단</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>21-76022150</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>00보병여단</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>21-76022151</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>윤승오</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>00보병여단</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>21-76022152</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>박철민</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>00보병여단</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>21-76022153</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>홍철민</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21-76022154</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>박승오</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>21-76022155</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>김성수</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>21-76022156</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>허종환</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>21-76022157</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>안형인</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>21-76022158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>나선의</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21-76022159</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>변상현</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01보병여단</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>21-76022160</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>조봉희</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>소속없음</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>21-76022161</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>염기정</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>소속없음</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>21-76022162</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>박대영</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>소속없음</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21-76022163</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>박도영</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>